--- a/medicine/Médecine vétérinaire/Fulicoffula_rallina/Fulicoffula_rallina.xlsx
+++ b/medicine/Médecine vétérinaire/Fulicoffula_rallina/Fulicoffula_rallina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fulicoffula rallina est une espèce de poux de la famille des Philopteridae. On le trouve notamment sur certaines espèces d'oiseaux comme celles de la famille des Rallidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Fulicoffula rallina a été initialement décrite en 1842 par Henry Denny (d) sous le protonyme de Nirmus rallinus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Fulicoffula rallina a été initialement décrite en 1842 par Henry Denny (d) sous le protonyme de Nirmus rallinus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, rallina, lui a été donné en référence à l'espèce parasitée sur laquelle ce pou a été trouvé (le Râle d'eau, Rallus aquaticus)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, rallina, lui a été donné en référence à l'espèce parasitée sur laquelle ce pou a été trouvé (le Râle d'eau, Rallus aquaticus).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Henry Denny, Monographia anoplurorum Britanniae : An essay on the British species of parasitic insects belonging to the order of Anoplura of Leach, with the modern divisions of the general according to the views of Leach, Nitzsch, and Burmeister, Henry George Bohn, 1842, 262 p. (DOI 10.5962/BHL.TITLE.26900, lire en ligne)</t>
         </is>
